--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t xml:space="preserve">Alexandre </t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>nome</t>
+  </si>
+  <si>
+    <t>caminho_arquivo</t>
+  </si>
+  <si>
+    <t>C:\Users\Alexandre\Pictures\minhafoto.jpg</t>
   </si>
 </sst>
 </file>
@@ -365,89 +371,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>63984886628</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>6384198218</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
